--- a/data/trans_bre/P19C01-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.493209823340326</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.434377361772759</v>
+        <v>7.434377361772765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1686480088519131</v>
@@ -649,7 +649,7 @@
         <v>0.09036099199354933</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1702160003713598</v>
+        <v>0.1702160003713599</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.670555194696833</v>
+        <v>-1.449286887110564</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4589034370813351</v>
+        <v>0.7023374443655478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8861009826504596</v>
+        <v>-1.340412992168119</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5852747755785092</v>
+        <v>0.880998405905876</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06605011401699566</v>
+        <v>-0.05853671806736741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01763764491015257</v>
+        <v>0.02616933113259908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02102788561065456</v>
+        <v>-0.02946398180443969</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.01221768482587311</v>
+        <v>0.01911989986537964</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.441616633755681</v>
+        <v>9.044365571785294</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.884150086915467</v>
+        <v>9.33865557324398</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.481045568411325</v>
+        <v>8.021718748643488</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.92674839700587</v>
+        <v>13.39225295484944</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4952927658395732</v>
+        <v>0.4603015216693538</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3857750650816074</v>
+        <v>0.4088475869440015</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2362296128572216</v>
+        <v>0.2255474207267344</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3597184728176903</v>
+        <v>0.3382504618491416</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6722630275524464</v>
+        <v>0.9447298371734598</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.950141518649913</v>
+        <v>2.805317963704601</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.801362693608091</v>
+        <v>-4.733376348381853</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.554459831656495</v>
+        <v>2.253383177446183</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01820201957711225</v>
+        <v>0.03320442721665053</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1339672601333756</v>
+        <v>0.09311208258992763</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1057585810279689</v>
+        <v>-0.1036857707128166</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02913127737216424</v>
+        <v>0.04003919300766269</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.215012695718022</v>
+        <v>9.744290087289675</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.56517099985405</v>
+        <v>12.00364128621625</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.231235449839748</v>
+        <v>5.454095661296779</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.8401648119499</v>
+        <v>11.31393546389259</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3858266778017626</v>
+        <v>0.4276324470506604</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5092592922227865</v>
+        <v>0.4890135274105671</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.131278357634457</v>
+        <v>0.1359826722439158</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2292246954569541</v>
+        <v>0.2375812299551948</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.020903090822257</v>
+        <v>-4.623175488186916</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1927991970706067</v>
+        <v>-0.10740833735151</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6344744040441385</v>
+        <v>-0.5883248855003764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.568011379818785</v>
+        <v>-4.595992781806144</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1170030929776938</v>
+        <v>-0.1295120843538677</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.005552836120641801</v>
+        <v>-0.007001823500374488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.01547149071495363</v>
+        <v>-0.01066047335568926</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06747069546903427</v>
+        <v>-0.06757395469991891</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.85477872444034</v>
+        <v>5.22336800570283</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.848169531898087</v>
+        <v>9.652875482216158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.980413918872905</v>
+        <v>10.33299531233632</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.181007287159381</v>
+        <v>3.556866313227547</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1587028407089167</v>
+        <v>0.169512698587206</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3430681153760773</v>
+        <v>0.3245787801147615</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2567685617863452</v>
+        <v>0.2699992752007914</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.05040011965586667</v>
+        <v>0.05654087101126121</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.909033927572573</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.375195235167093</v>
+        <v>-1.37519523516707</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07344937183472723</v>
@@ -949,7 +949,7 @@
         <v>0.04710740311242765</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.02195984918156779</v>
+        <v>-0.02195984918156745</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.136739762349757</v>
+        <v>-4.495400089033242</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.771905255330219</v>
+        <v>-5.3811672247341</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.695271010422322</v>
+        <v>-5.057454438982157</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.228169658965855</v>
+        <v>-6.083194461742239</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1194541334412345</v>
+        <v>-0.1078696895154614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.138331379759932</v>
+        <v>-0.131273108715785</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1245064991812987</v>
+        <v>-0.1168293078319367</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09580576409902876</v>
+        <v>-0.09533700718285303</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.89198259417486</v>
+        <v>11.86639722837147</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.426007993123179</v>
+        <v>8.25915628072887</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.570370986152213</v>
+        <v>8.690491649431847</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.904549928760482</v>
+        <v>3.11880290189323</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3044470852369673</v>
+        <v>0.3404531704869198</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2308395668631266</v>
+        <v>0.2396032872739682</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2318944269159521</v>
+        <v>0.2340766666313746</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04802103358159027</v>
+        <v>0.05133600637166656</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.079860489802316</v>
+        <v>-0.8785330315695703</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.230174734397321</v>
+        <v>2.405162652693388</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2993148182930607</v>
+        <v>-0.1059708506708988</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6931180398321105</v>
+        <v>-0.5815699486485919</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03330239017022597</v>
+        <v>-0.02777734017181887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06978745934814587</v>
+        <v>0.07692423841091496</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.007090939833877221</v>
+        <v>-0.002879784509438009</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.01199170925811707</v>
+        <v>-0.009930770873452585</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.098030146483215</v>
+        <v>4.392975931581681</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.210886491497336</v>
+        <v>7.331649666624607</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.200162512954423</v>
+        <v>5.385757561428772</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.213567055232934</v>
+        <v>4.15311649928092</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1446995586443533</v>
+        <v>0.1563371600702856</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2539571530140896</v>
+        <v>0.2592055989449138</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1306125376263317</v>
+        <v>0.1343486202414001</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.0756465471551112</v>
+        <v>0.07373735917213714</v>
       </c>
     </row>
     <row r="19">
